--- a/EwQIMS_POM/data/TestingExcel.xlsx
+++ b/EwQIMS_POM/data/TestingExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TC009" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
   <si>
     <t>userName</t>
   </si>
@@ -50,15 +50,9 @@
     <t>EMP295</t>
   </si>
   <si>
-    <t>D:\\Level Structure and document\\Extended Hide Branches- Cust Copy.docx</t>
-  </si>
-  <si>
     <t>EV MR Evidence</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>01.FCPA</t>
   </si>
   <si>
@@ -153,6 +147,9 @@
   </si>
   <si>
     <t>Need more changes on this document</t>
+  </si>
+  <si>
+    <t>Quality Assurance Process and checklists Document</t>
   </si>
 </sst>
 </file>
@@ -495,45 +492,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -541,19 +550,28 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -579,22 +597,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -608,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -651,16 +669,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,16 +689,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +717,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,13 +729,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,13 +746,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -768,16 +786,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,16 +806,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -827,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -841,10 +859,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -876,19 +894,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -899,19 +917,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +961,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,19 +984,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1018,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1033,9 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1081,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1089,10 +1105,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1100,10 +1116,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
